--- a/API/Uploads/FileTemplate/DS-BaoCaoTienDoNghienCuu.xlsx
+++ b/API/Uploads/FileTemplate/DS-BaoCaoTienDoNghienCuu.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="444" windowWidth="33600" windowHeight="19260" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="DS-NhanSu" sheetId="3" r:id="rId1"/>
+    <sheet name="Danh sách" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -500,7 +500,7 @@
   <dimension ref="B1:R2"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
